--- a/Buzzer System BOM.xlsx
+++ b/Buzzer System BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colytongrammarschool-my.sharepoint.com/personal/18rmitcham_colytongrammar_com/Documents/A-Levels/Other/Buzzer System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{540CE541-DD81-4544-BFC3-1DC1AAF319E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B94EA5B-9BFD-4112-9F8B-6709DBEA0D02}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{540CE541-DD81-4544-BFC3-1DC1AAF319E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DBFC2C-3476-4B03-9ACE-A9CAE6E003B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{84CFF804-1E87-47D5-814C-F7C178BC3692}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>2x AAA Open Battery Holder</t>
+  </si>
+  <si>
+    <t>https://amzn.eu/d/4SoX1n2</t>
+  </si>
+  <si>
+    <t>1 Kg Black Filament</t>
   </si>
 </sst>
 </file>
@@ -220,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,7 +532,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E6" si="0">ROUNDUP(D2/C2, 0)</f>
+        <f t="shared" ref="E2:E5" si="0">ROUNDUP(D2/C2, 0)</f>
         <v>16</v>
       </c>
       <c r="F2" s="5">
@@ -621,14 +631,32 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12.99</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>12.99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -663,18 +691,14 @@
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F6" s="7">
+        <f>SUM(F2:F5)</f>
+        <v>63.580000000000005</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="F7" s="7">
-        <f>SUM(F2:F6)</f>
-        <v>50.59</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
